--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.24180766511929</v>
+        <v>6.660188000000001</v>
       </c>
       <c r="H2">
-        <v>6.24180766511929</v>
+        <v>19.980564</v>
       </c>
       <c r="I2">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131262</v>
       </c>
       <c r="J2">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131261</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.14980033803534</v>
+        <v>2.398836333333334</v>
       </c>
       <c r="N2">
-        <v>2.14980033803534</v>
+        <v>7.196509000000001</v>
       </c>
       <c r="O2">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633866</v>
       </c>
       <c r="P2">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633865</v>
       </c>
       <c r="Q2">
-        <v>13.41864022842503</v>
+        <v>15.97670096123067</v>
       </c>
       <c r="R2">
-        <v>13.41864022842503</v>
+        <v>143.790308651076</v>
       </c>
       <c r="S2">
-        <v>0.01394016877713343</v>
+        <v>0.01408153393195947</v>
       </c>
       <c r="T2">
-        <v>0.01394016877713343</v>
+        <v>0.01408153393195946</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.24180766511929</v>
+        <v>6.660188000000001</v>
       </c>
       <c r="H3">
-        <v>6.24180766511929</v>
+        <v>19.980564</v>
       </c>
       <c r="I3">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131262</v>
       </c>
       <c r="J3">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131261</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.67237596427582</v>
+        <v>5.682092999999999</v>
       </c>
       <c r="N3">
-        <v>5.67237596427582</v>
+        <v>17.046279</v>
       </c>
       <c r="O3">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="P3">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="Q3">
-        <v>35.40587977325524</v>
+        <v>37.843807613484</v>
       </c>
       <c r="R3">
-        <v>35.40587977325524</v>
+        <v>340.594268521356</v>
       </c>
       <c r="S3">
-        <v>0.03678196384582576</v>
+        <v>0.03335474966433698</v>
       </c>
       <c r="T3">
-        <v>0.03678196384582576</v>
+        <v>0.03335474966433698</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.24180766511929</v>
+        <v>6.660188000000001</v>
       </c>
       <c r="H4">
-        <v>6.24180766511929</v>
+        <v>19.980564</v>
       </c>
       <c r="I4">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131262</v>
       </c>
       <c r="J4">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131261</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.57848544334777</v>
+        <v>12.17451333333334</v>
       </c>
       <c r="N4">
-        <v>9.57848544334777</v>
+        <v>36.52354</v>
       </c>
       <c r="O4">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="P4">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="Q4">
-        <v>59.78706386052165</v>
+        <v>81.08454760850668</v>
       </c>
       <c r="R4">
-        <v>59.78706386052165</v>
+        <v>729.7609284765601</v>
       </c>
       <c r="S4">
-        <v>0.06211074644802134</v>
+        <v>0.07146624395596239</v>
       </c>
       <c r="T4">
-        <v>0.06211074644802134</v>
+        <v>0.07146624395596238</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.24180766511929</v>
+        <v>6.660188000000001</v>
       </c>
       <c r="H5">
-        <v>6.24180766511929</v>
+        <v>19.980564</v>
       </c>
       <c r="I5">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131262</v>
       </c>
       <c r="J5">
-        <v>0.1470019048577876</v>
+        <v>0.1500148400131261</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.26941849565765</v>
+        <v>5.300086333333334</v>
       </c>
       <c r="N5">
-        <v>5.26941849565765</v>
+        <v>15.900259</v>
       </c>
       <c r="O5">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="P5">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="Q5">
-        <v>32.89069675691728</v>
+        <v>35.29957139623068</v>
       </c>
       <c r="R5">
-        <v>32.89069675691728</v>
+        <v>317.696142566076</v>
       </c>
       <c r="S5">
-        <v>0.0341690257868071</v>
+        <v>0.03111231246086734</v>
       </c>
       <c r="T5">
-        <v>0.0341690257868071</v>
+        <v>0.03111231246086733</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.2588228948378</v>
+        <v>16.410331</v>
       </c>
       <c r="H6">
-        <v>16.2588228948378</v>
+        <v>49.230993</v>
       </c>
       <c r="I6">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="J6">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.14980033803534</v>
+        <v>2.398836333333334</v>
       </c>
       <c r="N6">
-        <v>2.14980033803534</v>
+        <v>7.196509000000001</v>
       </c>
       <c r="O6">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633866</v>
       </c>
       <c r="P6">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633865</v>
       </c>
       <c r="Q6">
-        <v>34.95322295537903</v>
+        <v>39.36569824482633</v>
       </c>
       <c r="R6">
-        <v>34.95322295537903</v>
+        <v>354.291284203437</v>
       </c>
       <c r="S6">
-        <v>0.03631171407894196</v>
+        <v>0.03469611260390643</v>
       </c>
       <c r="T6">
-        <v>0.03631171407894196</v>
+        <v>0.03469611260390642</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.2588228948378</v>
+        <v>16.410331</v>
       </c>
       <c r="H7">
-        <v>16.2588228948378</v>
+        <v>49.230993</v>
       </c>
       <c r="I7">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="J7">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.67237596427582</v>
+        <v>5.682092999999999</v>
       </c>
       <c r="N7">
-        <v>5.67237596427582</v>
+        <v>17.046279</v>
       </c>
       <c r="O7">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="P7">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="Q7">
-        <v>92.22615619609533</v>
+        <v>93.24502690278298</v>
       </c>
       <c r="R7">
-        <v>92.22615619609533</v>
+        <v>839.2052421250469</v>
       </c>
       <c r="S7">
-        <v>0.0958106157668956</v>
+        <v>0.0821842390055519</v>
       </c>
       <c r="T7">
-        <v>0.0958106157668956</v>
+        <v>0.0821842390055519</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.2588228948378</v>
+        <v>16.410331</v>
       </c>
       <c r="H8">
-        <v>16.2588228948378</v>
+        <v>49.230993</v>
       </c>
       <c r="I8">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="J8">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.57848544334777</v>
+        <v>12.17451333333334</v>
       </c>
       <c r="N8">
-        <v>9.57848544334777</v>
+        <v>36.52354</v>
       </c>
       <c r="O8">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="P8">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="Q8">
-        <v>155.7348984241733</v>
+        <v>199.7877935639134</v>
       </c>
       <c r="R8">
-        <v>155.7348984241733</v>
+        <v>1798.09014207522</v>
       </c>
       <c r="S8">
-        <v>0.161787687244486</v>
+        <v>0.1760888309225043</v>
       </c>
       <c r="T8">
-        <v>0.161787687244486</v>
+        <v>0.1760888309225043</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.2588228948378</v>
+        <v>16.410331</v>
       </c>
       <c r="H9">
-        <v>16.2588228948378</v>
+        <v>49.230993</v>
       </c>
       <c r="I9">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="J9">
-        <v>0.3829143838639711</v>
+        <v>0.3696281815959916</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.26941849565765</v>
+        <v>5.300086333333334</v>
       </c>
       <c r="N9">
-        <v>5.26941849565765</v>
+        <v>15.900259</v>
       </c>
       <c r="O9">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="P9">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="Q9">
-        <v>85.67454207968035</v>
+        <v>86.97617105857634</v>
       </c>
       <c r="R9">
-        <v>85.67454207968035</v>
+        <v>782.785539527187</v>
       </c>
       <c r="S9">
-        <v>0.08900436677364762</v>
+        <v>0.07665899906402904</v>
       </c>
       <c r="T9">
-        <v>0.08900436677364762</v>
+        <v>0.07665899906402902</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.2214157249612</v>
+        <v>14.478895</v>
       </c>
       <c r="H10">
-        <v>13.2214157249612</v>
+        <v>43.436685</v>
       </c>
       <c r="I10">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="J10">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.14980033803534</v>
+        <v>2.398836333333334</v>
       </c>
       <c r="N10">
-        <v>2.14980033803534</v>
+        <v>7.196509000000001</v>
       </c>
       <c r="O10">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633866</v>
       </c>
       <c r="P10">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633865</v>
       </c>
       <c r="Q10">
-        <v>28.42340399482735</v>
+        <v>34.73249939251833</v>
       </c>
       <c r="R10">
-        <v>28.42340399482735</v>
+        <v>312.592494532665</v>
       </c>
       <c r="S10">
-        <v>0.02952810733156139</v>
+        <v>0.03061250692019178</v>
       </c>
       <c r="T10">
-        <v>0.02952810733156139</v>
+        <v>0.03061250692019177</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.2214157249612</v>
+        <v>14.478895</v>
       </c>
       <c r="H11">
-        <v>13.2214157249612</v>
+        <v>43.436685</v>
       </c>
       <c r="I11">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="J11">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.67237596427582</v>
+        <v>5.682092999999999</v>
       </c>
       <c r="N11">
-        <v>5.67237596427582</v>
+        <v>17.046279</v>
       </c>
       <c r="O11">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="P11">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="Q11">
-        <v>74.99684077196828</v>
+        <v>82.27042792723499</v>
       </c>
       <c r="R11">
-        <v>74.99684077196828</v>
+        <v>740.4338513451149</v>
       </c>
       <c r="S11">
-        <v>0.07791166618346305</v>
+        <v>0.07251145435252283</v>
       </c>
       <c r="T11">
-        <v>0.07791166618346305</v>
+        <v>0.07251145435252282</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.2214157249612</v>
+        <v>14.478895</v>
       </c>
       <c r="H12">
-        <v>13.2214157249612</v>
+        <v>43.436685</v>
       </c>
       <c r="I12">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="J12">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.57848544334777</v>
+        <v>12.17451333333334</v>
       </c>
       <c r="N12">
-        <v>9.57848544334777</v>
+        <v>36.52354</v>
       </c>
       <c r="O12">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="P12">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="Q12">
-        <v>126.6411380619902</v>
+        <v>176.2735002294334</v>
       </c>
       <c r="R12">
-        <v>126.6411380619902</v>
+        <v>1586.4615020649</v>
       </c>
       <c r="S12">
-        <v>0.1315631694911018</v>
+        <v>0.1553638189016232</v>
       </c>
       <c r="T12">
-        <v>0.1315631694911018</v>
+        <v>0.1553638189016232</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.2214157249612</v>
+        <v>14.478895</v>
       </c>
       <c r="H13">
-        <v>13.2214157249612</v>
+        <v>43.436685</v>
       </c>
       <c r="I13">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="J13">
-        <v>0.3113798759527877</v>
+        <v>0.3261242951387937</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.26941849565765</v>
+        <v>5.300086333333334</v>
       </c>
       <c r="N13">
-        <v>5.26941849565765</v>
+        <v>15.900259</v>
       </c>
       <c r="O13">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="P13">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="Q13">
-        <v>69.66917255988945</v>
+        <v>76.73939351126833</v>
       </c>
       <c r="R13">
-        <v>69.66917255988945</v>
+        <v>690.654541601415</v>
       </c>
       <c r="S13">
-        <v>0.07237693294666142</v>
+        <v>0.06763651496445591</v>
       </c>
       <c r="T13">
-        <v>0.07237693294666142</v>
+        <v>0.0676365149644559</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.73868013327153</v>
+        <v>6.847447</v>
       </c>
       <c r="H14">
-        <v>6.73868013327153</v>
+        <v>20.542341</v>
       </c>
       <c r="I14">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="J14">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.14980033803534</v>
+        <v>2.398836333333334</v>
       </c>
       <c r="N14">
-        <v>2.14980033803534</v>
+        <v>7.196509000000001</v>
       </c>
       <c r="O14">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633866</v>
       </c>
       <c r="P14">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633865</v>
       </c>
       <c r="Q14">
-        <v>14.48681682841917</v>
+        <v>16.42590465417434</v>
       </c>
       <c r="R14">
-        <v>14.48681682841917</v>
+        <v>147.833141887569</v>
       </c>
       <c r="S14">
-        <v>0.01504986110319787</v>
+        <v>0.01447745278028099</v>
       </c>
       <c r="T14">
-        <v>0.01504986110319787</v>
+        <v>0.01447745278028098</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.73868013327153</v>
+        <v>6.847447</v>
       </c>
       <c r="H15">
-        <v>6.73868013327153</v>
+        <v>20.542341</v>
       </c>
       <c r="I15">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="J15">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.67237596427582</v>
+        <v>5.682092999999999</v>
       </c>
       <c r="N15">
-        <v>5.67237596427582</v>
+        <v>17.046279</v>
       </c>
       <c r="O15">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="P15">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="Q15">
-        <v>38.22432721891241</v>
+        <v>38.90783066657099</v>
       </c>
       <c r="R15">
-        <v>38.22432721891241</v>
+        <v>350.170475999139</v>
       </c>
       <c r="S15">
-        <v>0.03970995300218703</v>
+        <v>0.03429255758618454</v>
       </c>
       <c r="T15">
-        <v>0.03970995300218703</v>
+        <v>0.03429255758618454</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.73868013327153</v>
+        <v>6.847447</v>
       </c>
       <c r="H16">
-        <v>6.73868013327153</v>
+        <v>20.542341</v>
       </c>
       <c r="I16">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="J16">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.57848544334777</v>
+        <v>12.17451333333334</v>
       </c>
       <c r="N16">
-        <v>9.57848544334777</v>
+        <v>36.52354</v>
       </c>
       <c r="O16">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="P16">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="Q16">
-        <v>64.54634956391816</v>
+        <v>83.36433480079334</v>
       </c>
       <c r="R16">
-        <v>64.54634956391816</v>
+        <v>750.2790132071401</v>
       </c>
       <c r="S16">
-        <v>0.06705500643521474</v>
+        <v>0.07347560125592892</v>
       </c>
       <c r="T16">
-        <v>0.06705500643521474</v>
+        <v>0.07347560125592892</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.73868013327153</v>
+        <v>6.847447</v>
       </c>
       <c r="H17">
-        <v>6.73868013327153</v>
+        <v>20.542341</v>
       </c>
       <c r="I17">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="J17">
-        <v>0.1587038353254535</v>
+        <v>0.1542326832520885</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.26941849565765</v>
+        <v>5.300086333333334</v>
       </c>
       <c r="N17">
-        <v>5.26941849565765</v>
+        <v>15.900259</v>
       </c>
       <c r="O17">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="P17">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="Q17">
-        <v>35.50892573058176</v>
+        <v>36.29206026292434</v>
       </c>
       <c r="R17">
-        <v>35.50892573058176</v>
+        <v>326.628542366319</v>
       </c>
       <c r="S17">
-        <v>0.03688901478485385</v>
+        <v>0.03198707162969403</v>
       </c>
       <c r="T17">
-        <v>0.03688901478485385</v>
+        <v>0.03198707162969402</v>
       </c>
     </row>
   </sheetData>
